--- a/data/trans_bre/P32B-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Clase-trans_bre.xlsx
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9924046835282523</v>
+        <v>-1.164779571056071</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.639565076424581</v>
+        <v>-5.510430060318535</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.544052931281936</v>
+        <v>-4.387516646540553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.654336348670457</v>
+        <v>-4.89462017867918</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -686,22 +686,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.193737814500259</v>
+        <v>3.109540076341234</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.250202613110009</v>
+        <v>-1.281771104992415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1701983173553614</v>
+        <v>0.1632309099102695</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4940146799606985</v>
+        <v>0.3013687750065336</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>0.8923750983162758</v>
+        <v>0.5835162218471573</v>
       </c>
     </row>
     <row r="7">
@@ -748,22 +748,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6323483271469457</v>
+        <v>-0.4406421104540363</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.3892626821527355</v>
+        <v>-0.3914396993830147</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.900297190833543</v>
+        <v>-3.23130475073148</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.046846956897079</v>
+        <v>0.02027520991190159</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.5924981638128556</v>
+        <v>-0.7343703437592952</v>
       </c>
     </row>
     <row r="9">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.001045209319633</v>
+        <v>4.021794736844106</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.627538470316351</v>
+        <v>4.662689137754156</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7596090488862485</v>
+        <v>0.8104844261814894</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.334416031176874</v>
+        <v>5.007460873246253</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -811,7 +811,7 @@
         <v>2.002437577043786</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.745104189891839</v>
+        <v>-2.745104189891838</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-1</v>
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.778727127474232</v>
+        <v>-1.77700494847168</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.759783427483253</v>
+        <v>-6.583579705106635</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.57184026511038</v>
+        <v>-1.843372155984988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.366871742545335</v>
+        <v>-6.392120685090696</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.031396395341468</v>
+        <v>-2.096401013335487</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.9002408341228</v>
+        <v>9.958078660858446</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.9629814175151965</v>
+        <v>-1.007394614917135</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
@@ -895,7 +895,7 @@
         <v>-1.074083007109373</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.08454247779813642</v>
+        <v>-0.08454247779813712</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2211329125790914</v>
@@ -907,7 +907,7 @@
         <v>-0.4580775169674177</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.0445146234424286</v>
+        <v>-0.04451462344242896</v>
       </c>
     </row>
     <row r="14">
@@ -918,16 +918,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.215262911387097</v>
+        <v>-1.381656833549233</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.702040839139701</v>
+        <v>-4.801376165898658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.702525435192146</v>
+        <v>-2.905961025953335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.748328326012497</v>
+        <v>-1.79325896589976</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
@@ -936,10 +936,10 @@
         <v>-1</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8770843156503664</v>
+        <v>-0.8815192280174519</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8181370462574643</v>
+        <v>-0.804604489090871</v>
       </c>
     </row>
     <row r="15">
@@ -950,28 +950,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.109683698520139</v>
+        <v>3.005115811845326</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.42454521866978</v>
+        <v>-1.354355218380955</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9842902934235025</v>
+        <v>0.7709444491838048</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.444393333148681</v>
+        <v>3.786913304051112</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.19869550568731</v>
+        <v>4.257743433259855</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2174182238270062</v>
+        <v>-0.2365398595162991</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9747290889091358</v>
+        <v>0.7474737073518852</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4.385334180299783</v>
+        <v>3.558305419750352</v>
       </c>
     </row>
     <row r="16">
@@ -1018,24 +1018,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4378271639496548</v>
+        <v>-0.4261023535114438</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.195490937023676</v>
+        <v>-2.181384420164925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.021900413533448</v>
+        <v>-4.104635974615038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.076981757068088</v>
+        <v>-4.405827039548401</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
-      <c r="H17" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H17" s="6" t="inlineStr"/>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.8489051968277048</v>
+        <v>-0.8434385635375411</v>
       </c>
     </row>
     <row r="18">
@@ -1046,24 +1044,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.514206883073151</v>
+        <v>4.605609473194034</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.114174954617704</v>
+        <v>1.942449461031283</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.7260600086681923</v>
+        <v>-0.8763203100992982</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.460924868146969</v>
+        <v>1.361339474323575</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="n">
-        <v>5.079239077402914</v>
-      </c>
+      <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>1.153818688355835</v>
+        <v>1.155025658415586</v>
       </c>
     </row>
     <row r="19">
@@ -1112,21 +1108,23 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.003000243615931</v>
+        <v>-3.116163345806261</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-9.089987514244779</v>
+        <v>-8.98654572779563</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.578893516833966</v>
+        <v>-3.752939492636268</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="I20" s="6" t="n">
-        <v>-0.9286881479683625</v>
+        <v>-0.9108572519292499</v>
       </c>
       <c r="J20" s="6" t="inlineStr"/>
     </row>
@@ -1138,21 +1136,23 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9338045107530881</v>
+        <v>0.93448921236597</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-1.170967801809746</v>
+        <v>-1.258414000681756</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.332628826488026</v>
+        <v>1.622594988035284</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.988392156035793</v>
+        <v>8.753337851892518</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="n">
+        <v>-0.2484688645629328</v>
+      </c>
       <c r="I21" s="6" t="n">
-        <v>2.181586412858402</v>
+        <v>3.335264104047059</v>
       </c>
       <c r="J21" s="6" t="inlineStr"/>
     </row>
@@ -1177,7 +1177,7 @@
         <v>-1.08574634804182</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.3982422897779999</v>
+        <v>-0.3982422897779992</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2753958594117116</v>
@@ -1189,7 +1189,7 @@
         <v>-0.5132697480019164</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.1841231807622803</v>
+        <v>-0.18412318076228</v>
       </c>
     </row>
     <row r="23">
@@ -1200,28 +1200,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5082703921535062</v>
+        <v>-0.4908572505256621</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.17099516497787</v>
+        <v>-3.093453096626314</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.00842679395121</v>
+        <v>-1.956747255357671</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.534033219398181</v>
+        <v>-1.533593911727283</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5102716446359986</v>
+        <v>-0.465291542485353</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.9054955902529368</v>
+        <v>-0.8951426407057738</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.7527312678471094</v>
+        <v>-0.7566154433525876</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.5858572538583675</v>
+        <v>-0.5840581586479702</v>
       </c>
     </row>
     <row r="24">
@@ -1232,28 +1232,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.075935155305443</v>
+        <v>1.106236979157244</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.295306325420966</v>
+        <v>-1.203338420897544</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.2117283987776078</v>
+        <v>-0.2559932636103741</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8318535109126798</v>
+        <v>0.8072861880784263</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.895742633425442</v>
+        <v>1.84894733111983</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.4901195905986024</v>
+        <v>-0.4829419955813063</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.0807449559864165</v>
+        <v>-0.1218710112452132</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5013132193011203</v>
+        <v>0.487649574843516</v>
       </c>
     </row>
     <row r="25">
